--- a/src/test/resources/data/Program_Batch.xlsx
+++ b/src/test/resources/data/Program_Batch.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsri3\WorkSpace\LMSRestAssured\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A567E9D-5CFD-4093-9A86-065CD8395F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF06E69D-F709-43DB-AA3C-021C1080603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C8E15B34-3888-4847-8A71-A86B3BE4B81C}"/>
   </bookViews>
   <sheets>
     <sheet name="Batch" sheetId="1" r:id="rId1"/>
+    <sheet name="BatchIDSheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>batchDescription</t>
   </si>
@@ -45,19 +46,22 @@
     <t>SDET Testing</t>
   </si>
   <si>
-    <t>Jun23-Status200-SDET-SDET</t>
-  </si>
-  <si>
     <t>DA Testing</t>
   </si>
   <si>
-    <t>Jun23-Status200-DA-DA</t>
-  </si>
-  <si>
     <t>Saleforce Testing</t>
   </si>
   <si>
-    <t>Jun23-Status200-SA-SA</t>
+    <t>BatchId</t>
+  </si>
+  <si>
+    <t>Jul23-NinjaLibraries-SDET-SDET-123-123</t>
+  </si>
+  <si>
+    <t>Jul23-NinjaLibraries-DA-DA-234-234</t>
+  </si>
+  <si>
+    <t>Jul23-NinjaLibraries-SA-SA-123-123</t>
   </si>
 </sst>
 </file>
@@ -416,7 +420,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
@@ -440,7 +444,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -451,10 +455,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -465,16 +469,46 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF95887A-ECD6-4EE3-A57F-9B52D12F727D}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/Program_Batch.xlsx
+++ b/src/test/resources/data/Program_Batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsri3\WorkSpace\LMSRestAssured\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF06E69D-F709-43DB-AA3C-021C1080603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96ED5D0-CF4D-4804-BB4D-F0E84D2A468A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C8E15B34-3888-4847-8A71-A86B3BE4B81C}"/>
   </bookViews>
@@ -55,13 +55,13 @@
     <t>BatchId</t>
   </si>
   <si>
-    <t>Jul23-NinjaLibraries-SDET-SDET-123-123</t>
-  </si>
-  <si>
-    <t>Jul23-NinjaLibraries-DA-DA-234-234</t>
-  </si>
-  <si>
-    <t>Jul23-NinjaLibraries-SA-SA-123-123</t>
+    <t>Jul23-NinjaLibraries-SDET-SDET-333-333</t>
+  </si>
+  <si>
+    <t>Jul23-NinjaLibraries-DA-DA-444-444</t>
+  </si>
+  <si>
+    <t>Jul23-NinjaLibraries-SA-SA-555-555</t>
   </si>
 </sst>
 </file>
@@ -417,15 +417,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -453,7 +453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -467,7 +467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -492,23 +492,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/Program_Batch.xlsx
+++ b/src/test/resources/data/Program_Batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsri3\WorkSpace\LMSRestAssured\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96ED5D0-CF4D-4804-BB4D-F0E84D2A468A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EB59BE-AB9F-4393-AC6A-37142F3D80DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C8E15B34-3888-4847-8A71-A86B3BE4B81C}"/>
   </bookViews>
@@ -55,13 +55,13 @@
     <t>BatchId</t>
   </si>
   <si>
-    <t>Jul23-NinjaLibraries-SDET-SDET-333-333</t>
-  </si>
-  <si>
-    <t>Jul23-NinjaLibraries-DA-DA-444-444</t>
-  </si>
-  <si>
-    <t>Jul23-NinjaLibraries-SA-SA-555-555</t>
+    <t>Jul23-NinjaLibraries-SDET-SDET-444-444</t>
+  </si>
+  <si>
+    <t>Jul23-NinjaLibraries-DA-DA-555-555</t>
+  </si>
+  <si>
+    <t>Jul23-NinjaLibraries-SA-SA-666-666</t>
   </si>
 </sst>
 </file>
@@ -502,13 +502,13 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/Program_Batch.xlsx
+++ b/src/test/resources/data/Program_Batch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsri3\WorkSpace\LMSRestAssured\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EB59BE-AB9F-4393-AC6A-37142F3D80DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270EE262-19FF-46BF-BDF6-807FF94199ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C8E15B34-3888-4847-8A71-A86B3BE4B81C}"/>
   </bookViews>
@@ -55,13 +55,13 @@
     <t>BatchId</t>
   </si>
   <si>
-    <t>Jul23-NinjaLibraries-SDET-SDET-444-444</t>
-  </si>
-  <si>
-    <t>Jul23-NinjaLibraries-DA-DA-555-555</t>
-  </si>
-  <si>
-    <t>Jul23-NinjaLibraries-SA-SA-666-666</t>
+    <t>Jul23-NinjaLibraries-SDET-SDET-432-432</t>
+  </si>
+  <si>
+    <t>Jul23-NinjaLibraries-DA-DA-543-543</t>
+  </si>
+  <si>
+    <t>Jul23-NinjaLibraries-SA-SA-654-654</t>
   </si>
 </sst>
 </file>
@@ -502,13 +502,13 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
